--- a/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V8.xlsx
+++ b/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bulen\Desktop\GITHUB ANA KLASOR\Student_Work_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4ED457-8F33-4525-B6CD-FD1C6BF652CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C8BAD-2C57-428A-A4B1-FF0011AB3553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{188079E3-1FB8-4C3A-A4C1-FF4FF04EE122}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="102">
   <si>
     <t>Geometri</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Çözüm2</t>
+  </si>
+  <si>
+    <t>3D2</t>
   </si>
 </sst>
 </file>
@@ -1275,54 +1278,6 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1356,6 +1311,54 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13753,17 +13756,17 @@
       <c r="E140" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F140" s="175"/>
-      <c r="G140" s="175"/>
-      <c r="H140" s="175"/>
-      <c r="I140" s="175"/>
-      <c r="J140" s="175"/>
-      <c r="K140" s="175"/>
-      <c r="L140" s="175"/>
-      <c r="M140" s="175"/>
-      <c r="N140" s="175"/>
-      <c r="O140" s="175"/>
-      <c r="P140" s="175"/>
+      <c r="F140" s="159"/>
+      <c r="G140" s="159"/>
+      <c r="H140" s="159"/>
+      <c r="I140" s="159"/>
+      <c r="J140" s="159"/>
+      <c r="K140" s="159"/>
+      <c r="L140" s="159"/>
+      <c r="M140" s="159"/>
+      <c r="N140" s="159"/>
+      <c r="O140" s="159"/>
+      <c r="P140" s="159"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="31">
@@ -13779,16 +13782,16 @@
       <c r="E141" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F141" s="175"/>
-      <c r="G141" s="175"/>
-      <c r="H141" s="175"/>
-      <c r="I141" s="175"/>
-      <c r="J141" s="175"/>
-      <c r="K141" s="175"/>
-      <c r="L141" s="175"/>
-      <c r="M141" s="175"/>
-      <c r="N141" s="175"/>
-      <c r="O141" s="175"/>
+      <c r="F141" s="159"/>
+      <c r="G141" s="159"/>
+      <c r="H141" s="159"/>
+      <c r="I141" s="159"/>
+      <c r="J141" s="159"/>
+      <c r="K141" s="159"/>
+      <c r="L141" s="159"/>
+      <c r="M141" s="159"/>
+      <c r="N141" s="159"/>
+      <c r="O141" s="159"/>
       <c r="P141" s="36"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
@@ -13805,16 +13808,16 @@
       <c r="E142" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F142" s="175"/>
-      <c r="G142" s="175"/>
-      <c r="H142" s="175"/>
-      <c r="I142" s="175"/>
-      <c r="J142" s="175"/>
-      <c r="K142" s="175"/>
-      <c r="L142" s="175"/>
-      <c r="M142" s="175"/>
-      <c r="N142" s="175"/>
-      <c r="O142" s="175"/>
+      <c r="F142" s="159"/>
+      <c r="G142" s="159"/>
+      <c r="H142" s="159"/>
+      <c r="I142" s="159"/>
+      <c r="J142" s="159"/>
+      <c r="K142" s="159"/>
+      <c r="L142" s="159"/>
+      <c r="M142" s="159"/>
+      <c r="N142" s="159"/>
+      <c r="O142" s="159"/>
       <c r="P142" s="36"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
@@ -13831,16 +13834,16 @@
       <c r="E143" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="175"/>
-      <c r="G143" s="175"/>
-      <c r="H143" s="175"/>
-      <c r="I143" s="175"/>
-      <c r="J143" s="175"/>
-      <c r="K143" s="175"/>
-      <c r="L143" s="175"/>
-      <c r="M143" s="175"/>
-      <c r="N143" s="175"/>
-      <c r="O143" s="175"/>
+      <c r="F143" s="159"/>
+      <c r="G143" s="159"/>
+      <c r="H143" s="159"/>
+      <c r="I143" s="159"/>
+      <c r="J143" s="159"/>
+      <c r="K143" s="159"/>
+      <c r="L143" s="159"/>
+      <c r="M143" s="159"/>
+      <c r="N143" s="159"/>
+      <c r="O143" s="159"/>
       <c r="P143" s="36"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
@@ -13857,16 +13860,16 @@
       <c r="E144" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F144" s="175"/>
-      <c r="G144" s="175"/>
-      <c r="H144" s="175"/>
-      <c r="I144" s="175"/>
-      <c r="J144" s="175"/>
-      <c r="K144" s="175"/>
-      <c r="L144" s="175"/>
-      <c r="M144" s="175"/>
-      <c r="N144" s="175"/>
-      <c r="O144" s="175"/>
+      <c r="F144" s="159"/>
+      <c r="G144" s="159"/>
+      <c r="H144" s="159"/>
+      <c r="I144" s="159"/>
+      <c r="J144" s="159"/>
+      <c r="K144" s="159"/>
+      <c r="L144" s="159"/>
+      <c r="M144" s="159"/>
+      <c r="N144" s="159"/>
+      <c r="O144" s="159"/>
       <c r="P144" s="36"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
@@ -13883,16 +13886,16 @@
       <c r="E145" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F145" s="175"/>
-      <c r="G145" s="175"/>
-      <c r="H145" s="175"/>
-      <c r="I145" s="175"/>
-      <c r="J145" s="175"/>
-      <c r="K145" s="175"/>
-      <c r="L145" s="175"/>
-      <c r="M145" s="175"/>
-      <c r="N145" s="175"/>
-      <c r="O145" s="175"/>
+      <c r="F145" s="159"/>
+      <c r="G145" s="159"/>
+      <c r="H145" s="159"/>
+      <c r="I145" s="159"/>
+      <c r="J145" s="159"/>
+      <c r="K145" s="159"/>
+      <c r="L145" s="159"/>
+      <c r="M145" s="159"/>
+      <c r="N145" s="159"/>
+      <c r="O145" s="159"/>
       <c r="P145" s="36"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
@@ -13909,16 +13912,16 @@
       <c r="E146" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F146" s="175"/>
-      <c r="G146" s="175"/>
-      <c r="H146" s="175"/>
-      <c r="I146" s="175"/>
-      <c r="J146" s="175"/>
-      <c r="K146" s="175"/>
-      <c r="L146" s="175"/>
-      <c r="M146" s="175"/>
-      <c r="N146" s="175"/>
-      <c r="O146" s="175"/>
+      <c r="F146" s="159"/>
+      <c r="G146" s="159"/>
+      <c r="H146" s="159"/>
+      <c r="I146" s="159"/>
+      <c r="J146" s="159"/>
+      <c r="K146" s="159"/>
+      <c r="L146" s="159"/>
+      <c r="M146" s="159"/>
+      <c r="N146" s="159"/>
+      <c r="O146" s="159"/>
       <c r="P146" s="36"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
@@ -13935,16 +13938,16 @@
       <c r="E147" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F147" s="175"/>
-      <c r="G147" s="175"/>
-      <c r="H147" s="175"/>
-      <c r="I147" s="175"/>
-      <c r="J147" s="175"/>
-      <c r="K147" s="175"/>
-      <c r="L147" s="175"/>
-      <c r="M147" s="175"/>
-      <c r="N147" s="175"/>
-      <c r="O147" s="175"/>
+      <c r="F147" s="159"/>
+      <c r="G147" s="159"/>
+      <c r="H147" s="159"/>
+      <c r="I147" s="159"/>
+      <c r="J147" s="159"/>
+      <c r="K147" s="159"/>
+      <c r="L147" s="159"/>
+      <c r="M147" s="159"/>
+      <c r="N147" s="159"/>
+      <c r="O147" s="159"/>
       <c r="P147" s="36"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
@@ -13961,16 +13964,16 @@
       <c r="E148" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F148" s="175"/>
-      <c r="G148" s="175"/>
-      <c r="H148" s="175"/>
-      <c r="I148" s="175"/>
-      <c r="J148" s="175"/>
-      <c r="K148" s="175"/>
-      <c r="L148" s="175"/>
-      <c r="M148" s="175"/>
-      <c r="N148" s="175"/>
-      <c r="O148" s="175"/>
+      <c r="F148" s="159"/>
+      <c r="G148" s="159"/>
+      <c r="H148" s="159"/>
+      <c r="I148" s="159"/>
+      <c r="J148" s="159"/>
+      <c r="K148" s="159"/>
+      <c r="L148" s="159"/>
+      <c r="M148" s="159"/>
+      <c r="N148" s="159"/>
+      <c r="O148" s="159"/>
       <c r="P148" s="36"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
@@ -13987,16 +13990,16 @@
       <c r="E149" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F149" s="175"/>
-      <c r="G149" s="175"/>
-      <c r="H149" s="175"/>
-      <c r="I149" s="175"/>
-      <c r="J149" s="175"/>
-      <c r="K149" s="175"/>
-      <c r="L149" s="175"/>
-      <c r="M149" s="175"/>
-      <c r="N149" s="175"/>
-      <c r="O149" s="175"/>
+      <c r="F149" s="159"/>
+      <c r="G149" s="159"/>
+      <c r="H149" s="159"/>
+      <c r="I149" s="159"/>
+      <c r="J149" s="159"/>
+      <c r="K149" s="159"/>
+      <c r="L149" s="159"/>
+      <c r="M149" s="159"/>
+      <c r="N149" s="159"/>
+      <c r="O149" s="159"/>
       <c r="P149" s="36"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
@@ -14013,20 +14016,20 @@
       <c r="E150" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F150" s="175"/>
-      <c r="G150" s="175"/>
-      <c r="H150" s="175"/>
-      <c r="I150" s="175"/>
-      <c r="J150" s="175"/>
-      <c r="K150" s="175"/>
-      <c r="L150" s="175"/>
-      <c r="M150" s="175"/>
-      <c r="N150" s="175"/>
-      <c r="O150" s="175"/>
+      <c r="F150" s="159"/>
+      <c r="G150" s="159"/>
+      <c r="H150" s="159"/>
+      <c r="I150" s="159"/>
+      <c r="J150" s="159"/>
+      <c r="K150" s="159"/>
+      <c r="L150" s="159"/>
+      <c r="M150" s="159"/>
+      <c r="N150" s="159"/>
+      <c r="O150" s="159"/>
       <c r="P150" s="36"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A151" s="176">
+      <c r="A151" s="160">
         <v>45665</v>
       </c>
       <c r="B151" s="64" t="s">
@@ -14039,20 +14042,20 @@
       <c r="E151" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="F151" s="177"/>
-      <c r="G151" s="177"/>
-      <c r="H151" s="177"/>
-      <c r="I151" s="177"/>
-      <c r="J151" s="177"/>
-      <c r="K151" s="177"/>
-      <c r="L151" s="177"/>
-      <c r="M151" s="177"/>
-      <c r="N151" s="177"/>
-      <c r="O151" s="177"/>
+      <c r="F151" s="161"/>
+      <c r="G151" s="161"/>
+      <c r="H151" s="161"/>
+      <c r="I151" s="161"/>
+      <c r="J151" s="161"/>
+      <c r="K151" s="161"/>
+      <c r="L151" s="161"/>
+      <c r="M151" s="161"/>
+      <c r="N151" s="161"/>
+      <c r="O151" s="161"/>
       <c r="P151" s="116"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A152" s="176">
+      <c r="A152" s="160">
         <v>45665</v>
       </c>
       <c r="B152" s="64" t="s">
@@ -14065,20 +14068,20 @@
       <c r="E152" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="F152" s="177"/>
-      <c r="G152" s="177"/>
-      <c r="H152" s="177"/>
-      <c r="I152" s="177"/>
-      <c r="J152" s="177"/>
-      <c r="K152" s="177"/>
-      <c r="L152" s="177"/>
-      <c r="M152" s="177"/>
-      <c r="N152" s="177"/>
-      <c r="O152" s="177"/>
+      <c r="F152" s="161"/>
+      <c r="G152" s="161"/>
+      <c r="H152" s="161"/>
+      <c r="I152" s="161"/>
+      <c r="J152" s="161"/>
+      <c r="K152" s="161"/>
+      <c r="L152" s="161"/>
+      <c r="M152" s="161"/>
+      <c r="N152" s="161"/>
+      <c r="O152" s="161"/>
       <c r="P152" s="116"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A153" s="176">
+      <c r="A153" s="160">
         <v>45665</v>
       </c>
       <c r="B153" s="64" t="s">
@@ -14091,20 +14094,20 @@
       <c r="E153" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="F153" s="177"/>
-      <c r="G153" s="177"/>
-      <c r="H153" s="177"/>
-      <c r="I153" s="177"/>
-      <c r="J153" s="177"/>
-      <c r="K153" s="177"/>
-      <c r="L153" s="177"/>
-      <c r="M153" s="177"/>
-      <c r="N153" s="177"/>
-      <c r="O153" s="177"/>
+      <c r="F153" s="161"/>
+      <c r="G153" s="161"/>
+      <c r="H153" s="161"/>
+      <c r="I153" s="161"/>
+      <c r="J153" s="161"/>
+      <c r="K153" s="161"/>
+      <c r="L153" s="161"/>
+      <c r="M153" s="161"/>
+      <c r="N153" s="161"/>
+      <c r="O153" s="161"/>
       <c r="P153" s="116"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A154" s="176">
+      <c r="A154" s="160">
         <v>45665</v>
       </c>
       <c r="B154" s="64" t="s">
@@ -14117,20 +14120,20 @@
       <c r="E154" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="F154" s="177"/>
-      <c r="G154" s="177"/>
-      <c r="H154" s="177"/>
-      <c r="I154" s="177"/>
-      <c r="J154" s="177"/>
-      <c r="K154" s="177"/>
-      <c r="L154" s="177"/>
-      <c r="M154" s="177"/>
-      <c r="N154" s="177"/>
-      <c r="O154" s="177"/>
+      <c r="F154" s="161"/>
+      <c r="G154" s="161"/>
+      <c r="H154" s="161"/>
+      <c r="I154" s="161"/>
+      <c r="J154" s="161"/>
+      <c r="K154" s="161"/>
+      <c r="L154" s="161"/>
+      <c r="M154" s="161"/>
+      <c r="N154" s="161"/>
+      <c r="O154" s="161"/>
       <c r="P154" s="116"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A155" s="176">
+      <c r="A155" s="160">
         <v>45665</v>
       </c>
       <c r="B155" s="64" t="s">
@@ -14143,20 +14146,20 @@
       <c r="E155" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="F155" s="177"/>
-      <c r="G155" s="177"/>
-      <c r="H155" s="177"/>
-      <c r="I155" s="177"/>
-      <c r="J155" s="177"/>
-      <c r="K155" s="177"/>
-      <c r="L155" s="177"/>
-      <c r="M155" s="177"/>
-      <c r="N155" s="177"/>
-      <c r="O155" s="177"/>
+      <c r="F155" s="161"/>
+      <c r="G155" s="161"/>
+      <c r="H155" s="161"/>
+      <c r="I155" s="161"/>
+      <c r="J155" s="161"/>
+      <c r="K155" s="161"/>
+      <c r="L155" s="161"/>
+      <c r="M155" s="161"/>
+      <c r="N155" s="161"/>
+      <c r="O155" s="161"/>
       <c r="P155" s="116"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A156" s="176">
+      <c r="A156" s="160">
         <v>45665</v>
       </c>
       <c r="B156" s="64" t="s">
@@ -14169,20 +14172,20 @@
       <c r="E156" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="F156" s="177"/>
-      <c r="G156" s="177"/>
-      <c r="H156" s="177"/>
-      <c r="I156" s="177"/>
-      <c r="J156" s="177"/>
-      <c r="K156" s="177"/>
-      <c r="L156" s="177"/>
-      <c r="M156" s="177"/>
-      <c r="N156" s="177"/>
-      <c r="O156" s="177"/>
+      <c r="F156" s="161"/>
+      <c r="G156" s="161"/>
+      <c r="H156" s="161"/>
+      <c r="I156" s="161"/>
+      <c r="J156" s="161"/>
+      <c r="K156" s="161"/>
+      <c r="L156" s="161"/>
+      <c r="M156" s="161"/>
+      <c r="N156" s="161"/>
+      <c r="O156" s="161"/>
       <c r="P156" s="116"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A157" s="176">
+      <c r="A157" s="160">
         <v>45665</v>
       </c>
       <c r="B157" s="64" t="s">
@@ -14195,20 +14198,20 @@
       <c r="E157" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="F157" s="177"/>
-      <c r="G157" s="177"/>
-      <c r="H157" s="177"/>
-      <c r="I157" s="177"/>
-      <c r="J157" s="177"/>
-      <c r="K157" s="177"/>
-      <c r="L157" s="177"/>
-      <c r="M157" s="177"/>
-      <c r="N157" s="177"/>
-      <c r="O157" s="177"/>
+      <c r="F157" s="161"/>
+      <c r="G157" s="161"/>
+      <c r="H157" s="161"/>
+      <c r="I157" s="161"/>
+      <c r="J157" s="161"/>
+      <c r="K157" s="161"/>
+      <c r="L157" s="161"/>
+      <c r="M157" s="161"/>
+      <c r="N157" s="161"/>
+      <c r="O157" s="161"/>
       <c r="P157" s="116"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A158" s="176">
+      <c r="A158" s="160">
         <v>45665</v>
       </c>
       <c r="B158" s="64" t="s">
@@ -14221,20 +14224,20 @@
       <c r="E158" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="F158" s="177"/>
-      <c r="G158" s="177"/>
-      <c r="H158" s="177"/>
-      <c r="I158" s="177"/>
-      <c r="J158" s="177"/>
-      <c r="K158" s="177"/>
-      <c r="L158" s="177"/>
-      <c r="M158" s="177"/>
-      <c r="N158" s="177"/>
-      <c r="O158" s="177"/>
+      <c r="F158" s="161"/>
+      <c r="G158" s="161"/>
+      <c r="H158" s="161"/>
+      <c r="I158" s="161"/>
+      <c r="J158" s="161"/>
+      <c r="K158" s="161"/>
+      <c r="L158" s="161"/>
+      <c r="M158" s="161"/>
+      <c r="N158" s="161"/>
+      <c r="O158" s="161"/>
       <c r="P158" s="116"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A159" s="176">
+      <c r="A159" s="160">
         <v>45665</v>
       </c>
       <c r="B159" s="64" t="s">
@@ -14247,20 +14250,20 @@
       <c r="E159" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="F159" s="177"/>
-      <c r="G159" s="177"/>
-      <c r="H159" s="177"/>
-      <c r="I159" s="177"/>
-      <c r="J159" s="177"/>
-      <c r="K159" s="177"/>
-      <c r="L159" s="177"/>
-      <c r="M159" s="177"/>
-      <c r="N159" s="177"/>
-      <c r="O159" s="177"/>
+      <c r="F159" s="161"/>
+      <c r="G159" s="161"/>
+      <c r="H159" s="161"/>
+      <c r="I159" s="161"/>
+      <c r="J159" s="161"/>
+      <c r="K159" s="161"/>
+      <c r="L159" s="161"/>
+      <c r="M159" s="161"/>
+      <c r="N159" s="161"/>
+      <c r="O159" s="161"/>
       <c r="P159" s="116"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A160" s="176">
+      <c r="A160" s="160">
         <v>45665</v>
       </c>
       <c r="B160" s="64" t="s">
@@ -14273,20 +14276,20 @@
       <c r="E160" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="F160" s="177"/>
-      <c r="G160" s="177"/>
-      <c r="H160" s="177"/>
-      <c r="I160" s="177"/>
-      <c r="J160" s="177"/>
-      <c r="K160" s="177"/>
-      <c r="L160" s="177"/>
-      <c r="M160" s="177"/>
-      <c r="N160" s="177"/>
-      <c r="O160" s="177"/>
+      <c r="F160" s="161"/>
+      <c r="G160" s="161"/>
+      <c r="H160" s="161"/>
+      <c r="I160" s="161"/>
+      <c r="J160" s="161"/>
+      <c r="K160" s="161"/>
+      <c r="L160" s="161"/>
+      <c r="M160" s="161"/>
+      <c r="N160" s="161"/>
+      <c r="O160" s="161"/>
       <c r="P160" s="116"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A161" s="176">
+      <c r="A161" s="160">
         <v>45665</v>
       </c>
       <c r="B161" s="64" t="s">
@@ -14299,589 +14302,589 @@
       <c r="E161" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="F161" s="177"/>
-      <c r="G161" s="177"/>
-      <c r="H161" s="177"/>
-      <c r="I161" s="177"/>
-      <c r="J161" s="177"/>
-      <c r="K161" s="177"/>
-      <c r="L161" s="177"/>
-      <c r="M161" s="177"/>
-      <c r="N161" s="177"/>
-      <c r="O161" s="177"/>
+      <c r="F161" s="161"/>
+      <c r="G161" s="161"/>
+      <c r="H161" s="161"/>
+      <c r="I161" s="161"/>
+      <c r="J161" s="161"/>
+      <c r="K161" s="161"/>
+      <c r="L161" s="161"/>
+      <c r="M161" s="161"/>
+      <c r="N161" s="161"/>
+      <c r="O161" s="161"/>
       <c r="P161" s="116"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A162" s="186">
+      <c r="A162" s="170">
         <v>45672</v>
       </c>
-      <c r="B162" s="187" t="s">
+      <c r="B162" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C162" s="188">
+      <c r="C162" s="172">
         <v>3</v>
       </c>
-      <c r="D162" s="187"/>
-      <c r="E162" s="178" t="s">
+      <c r="D162" s="171"/>
+      <c r="E162" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="189"/>
-      <c r="G162" s="189"/>
-      <c r="H162" s="189"/>
-      <c r="I162" s="189"/>
-      <c r="J162" s="189"/>
-      <c r="K162" s="189"/>
-      <c r="L162" s="189"/>
-      <c r="M162" s="189"/>
-      <c r="N162" s="189"/>
-      <c r="O162" s="189"/>
-      <c r="P162" s="188"/>
+      <c r="F162" s="173"/>
+      <c r="G162" s="173"/>
+      <c r="H162" s="173"/>
+      <c r="I162" s="173"/>
+      <c r="J162" s="173"/>
+      <c r="K162" s="173"/>
+      <c r="L162" s="173"/>
+      <c r="M162" s="173"/>
+      <c r="N162" s="173"/>
+      <c r="O162" s="173"/>
+      <c r="P162" s="172"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A163" s="186">
+      <c r="A163" s="170">
         <v>45672</v>
       </c>
-      <c r="B163" s="187" t="s">
+      <c r="B163" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C163" s="188">
+      <c r="C163" s="172">
         <v>3</v>
       </c>
-      <c r="D163" s="187"/>
-      <c r="E163" s="178" t="s">
+      <c r="D163" s="171"/>
+      <c r="E163" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="F163" s="189"/>
-      <c r="G163" s="189"/>
-      <c r="H163" s="189"/>
-      <c r="I163" s="189"/>
-      <c r="J163" s="189"/>
-      <c r="K163" s="189"/>
-      <c r="L163" s="189"/>
-      <c r="M163" s="189"/>
-      <c r="N163" s="189"/>
-      <c r="O163" s="189"/>
-      <c r="P163" s="188"/>
+      <c r="F163" s="173"/>
+      <c r="G163" s="173"/>
+      <c r="H163" s="173"/>
+      <c r="I163" s="173"/>
+      <c r="J163" s="173"/>
+      <c r="K163" s="173"/>
+      <c r="L163" s="173"/>
+      <c r="M163" s="173"/>
+      <c r="N163" s="173"/>
+      <c r="O163" s="173"/>
+      <c r="P163" s="172"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A164" s="186">
+      <c r="A164" s="170">
         <v>45672</v>
       </c>
-      <c r="B164" s="187" t="s">
+      <c r="B164" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C164" s="188">
+      <c r="C164" s="172">
         <v>3</v>
       </c>
-      <c r="D164" s="187"/>
-      <c r="E164" s="178" t="s">
+      <c r="D164" s="171"/>
+      <c r="E164" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F164" s="189"/>
-      <c r="G164" s="189"/>
-      <c r="H164" s="189"/>
-      <c r="I164" s="189"/>
-      <c r="J164" s="189"/>
-      <c r="K164" s="189"/>
-      <c r="L164" s="189"/>
-      <c r="M164" s="189"/>
-      <c r="N164" s="189"/>
-      <c r="O164" s="189"/>
-      <c r="P164" s="188"/>
+      <c r="F164" s="173"/>
+      <c r="G164" s="173"/>
+      <c r="H164" s="173"/>
+      <c r="I164" s="173"/>
+      <c r="J164" s="173"/>
+      <c r="K164" s="173"/>
+      <c r="L164" s="173"/>
+      <c r="M164" s="173"/>
+      <c r="N164" s="173"/>
+      <c r="O164" s="173"/>
+      <c r="P164" s="172"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A165" s="186">
+      <c r="A165" s="170">
         <v>45672</v>
       </c>
-      <c r="B165" s="187" t="s">
+      <c r="B165" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C165" s="188">
+      <c r="C165" s="172">
         <v>3</v>
       </c>
-      <c r="D165" s="187"/>
-      <c r="E165" s="178" t="s">
+      <c r="D165" s="171"/>
+      <c r="E165" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="F165" s="189"/>
-      <c r="G165" s="189"/>
-      <c r="H165" s="189"/>
-      <c r="I165" s="189"/>
-      <c r="J165" s="189"/>
-      <c r="K165" s="189"/>
-      <c r="L165" s="189"/>
-      <c r="M165" s="189"/>
-      <c r="N165" s="189"/>
-      <c r="O165" s="189"/>
-      <c r="P165" s="188"/>
+      <c r="F165" s="173"/>
+      <c r="G165" s="173"/>
+      <c r="H165" s="173"/>
+      <c r="I165" s="173"/>
+      <c r="J165" s="173"/>
+      <c r="K165" s="173"/>
+      <c r="L165" s="173"/>
+      <c r="M165" s="173"/>
+      <c r="N165" s="173"/>
+      <c r="O165" s="173"/>
+      <c r="P165" s="172"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A166" s="186">
+      <c r="A166" s="170">
         <v>45672</v>
       </c>
-      <c r="B166" s="187" t="s">
+      <c r="B166" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C166" s="188">
+      <c r="C166" s="172">
         <v>3</v>
       </c>
-      <c r="D166" s="187"/>
-      <c r="E166" s="178" t="s">
+      <c r="D166" s="171"/>
+      <c r="E166" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="F166" s="189"/>
-      <c r="G166" s="189"/>
-      <c r="H166" s="189"/>
-      <c r="I166" s="189"/>
-      <c r="J166" s="189"/>
-      <c r="K166" s="189"/>
-      <c r="L166" s="189"/>
-      <c r="M166" s="189"/>
-      <c r="N166" s="189"/>
-      <c r="O166" s="189"/>
-      <c r="P166" s="188"/>
+      <c r="F166" s="173"/>
+      <c r="G166" s="173"/>
+      <c r="H166" s="173"/>
+      <c r="I166" s="173"/>
+      <c r="J166" s="173"/>
+      <c r="K166" s="173"/>
+      <c r="L166" s="173"/>
+      <c r="M166" s="173"/>
+      <c r="N166" s="173"/>
+      <c r="O166" s="173"/>
+      <c r="P166" s="172"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A167" s="186">
+      <c r="A167" s="170">
         <v>45672</v>
       </c>
-      <c r="B167" s="187" t="s">
+      <c r="B167" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C167" s="188">
+      <c r="C167" s="172">
         <v>3</v>
       </c>
-      <c r="D167" s="187"/>
-      <c r="E167" s="178" t="s">
+      <c r="D167" s="171"/>
+      <c r="E167" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="F167" s="189"/>
-      <c r="G167" s="189"/>
-      <c r="H167" s="189"/>
-      <c r="I167" s="189"/>
-      <c r="J167" s="189"/>
-      <c r="K167" s="189"/>
-      <c r="L167" s="189"/>
-      <c r="M167" s="189"/>
-      <c r="N167" s="189"/>
-      <c r="O167" s="189"/>
-      <c r="P167" s="188"/>
+      <c r="F167" s="173"/>
+      <c r="G167" s="173"/>
+      <c r="H167" s="173"/>
+      <c r="I167" s="173"/>
+      <c r="J167" s="173"/>
+      <c r="K167" s="173"/>
+      <c r="L167" s="173"/>
+      <c r="M167" s="173"/>
+      <c r="N167" s="173"/>
+      <c r="O167" s="173"/>
+      <c r="P167" s="172"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A168" s="186">
+      <c r="A168" s="170">
         <v>45672</v>
       </c>
-      <c r="B168" s="187" t="s">
+      <c r="B168" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C168" s="188">
+      <c r="C168" s="172">
         <v>3</v>
       </c>
-      <c r="D168" s="187"/>
-      <c r="E168" s="178" t="s">
+      <c r="D168" s="171"/>
+      <c r="E168" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="F168" s="189"/>
-      <c r="G168" s="189"/>
-      <c r="H168" s="189"/>
-      <c r="I168" s="189"/>
-      <c r="J168" s="189"/>
-      <c r="K168" s="189"/>
-      <c r="L168" s="189"/>
-      <c r="M168" s="189"/>
-      <c r="N168" s="189"/>
-      <c r="O168" s="189"/>
-      <c r="P168" s="188"/>
+      <c r="F168" s="173"/>
+      <c r="G168" s="173"/>
+      <c r="H168" s="173"/>
+      <c r="I168" s="173"/>
+      <c r="J168" s="173"/>
+      <c r="K168" s="173"/>
+      <c r="L168" s="173"/>
+      <c r="M168" s="173"/>
+      <c r="N168" s="173"/>
+      <c r="O168" s="173"/>
+      <c r="P168" s="172"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A169" s="186">
+      <c r="A169" s="170">
         <v>45672</v>
       </c>
-      <c r="B169" s="187" t="s">
+      <c r="B169" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C169" s="188">
+      <c r="C169" s="172">
         <v>3</v>
       </c>
-      <c r="D169" s="187"/>
-      <c r="E169" s="178" t="s">
+      <c r="D169" s="171"/>
+      <c r="E169" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F169" s="189"/>
-      <c r="G169" s="189"/>
-      <c r="H169" s="189"/>
-      <c r="I169" s="189"/>
-      <c r="J169" s="189"/>
-      <c r="K169" s="189"/>
-      <c r="L169" s="189"/>
-      <c r="M169" s="189"/>
-      <c r="N169" s="189"/>
-      <c r="O169" s="189"/>
-      <c r="P169" s="188"/>
+      <c r="F169" s="173"/>
+      <c r="G169" s="173"/>
+      <c r="H169" s="173"/>
+      <c r="I169" s="173"/>
+      <c r="J169" s="173"/>
+      <c r="K169" s="173"/>
+      <c r="L169" s="173"/>
+      <c r="M169" s="173"/>
+      <c r="N169" s="173"/>
+      <c r="O169" s="173"/>
+      <c r="P169" s="172"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A170" s="186">
+      <c r="A170" s="170">
         <v>45672</v>
       </c>
-      <c r="B170" s="187" t="s">
+      <c r="B170" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C170" s="188">
+      <c r="C170" s="172">
         <v>3</v>
       </c>
-      <c r="D170" s="187"/>
-      <c r="E170" s="179" t="s">
+      <c r="D170" s="171"/>
+      <c r="E170" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="F170" s="189"/>
-      <c r="G170" s="189"/>
-      <c r="H170" s="189"/>
-      <c r="I170" s="189"/>
-      <c r="J170" s="189"/>
-      <c r="K170" s="189"/>
-      <c r="L170" s="189"/>
-      <c r="M170" s="189"/>
-      <c r="N170" s="189"/>
-      <c r="O170" s="189"/>
-      <c r="P170" s="188"/>
+      <c r="F170" s="173"/>
+      <c r="G170" s="173"/>
+      <c r="H170" s="173"/>
+      <c r="I170" s="173"/>
+      <c r="J170" s="173"/>
+      <c r="K170" s="173"/>
+      <c r="L170" s="173"/>
+      <c r="M170" s="173"/>
+      <c r="N170" s="173"/>
+      <c r="O170" s="173"/>
+      <c r="P170" s="172"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A171" s="186">
+      <c r="A171" s="170">
         <v>45672</v>
       </c>
-      <c r="B171" s="187" t="s">
+      <c r="B171" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C171" s="188">
+      <c r="C171" s="172">
         <v>3</v>
       </c>
-      <c r="D171" s="187"/>
-      <c r="E171" s="179" t="s">
+      <c r="D171" s="171"/>
+      <c r="E171" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F171" s="189"/>
-      <c r="G171" s="189"/>
-      <c r="H171" s="189"/>
-      <c r="I171" s="189"/>
-      <c r="J171" s="189"/>
-      <c r="K171" s="189"/>
-      <c r="L171" s="189"/>
-      <c r="M171" s="189"/>
-      <c r="N171" s="189"/>
-      <c r="O171" s="189"/>
-      <c r="P171" s="188"/>
+      <c r="F171" s="173"/>
+      <c r="G171" s="173"/>
+      <c r="H171" s="173"/>
+      <c r="I171" s="173"/>
+      <c r="J171" s="173"/>
+      <c r="K171" s="173"/>
+      <c r="L171" s="173"/>
+      <c r="M171" s="173"/>
+      <c r="N171" s="173"/>
+      <c r="O171" s="173"/>
+      <c r="P171" s="172"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A172" s="186">
+      <c r="A172" s="170">
         <v>45672</v>
       </c>
-      <c r="B172" s="187" t="s">
+      <c r="B172" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="C172" s="188">
+      <c r="C172" s="172">
         <v>3</v>
       </c>
-      <c r="D172" s="187"/>
-      <c r="E172" s="178" t="s">
+      <c r="D172" s="171"/>
+      <c r="E172" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="F172" s="189"/>
-      <c r="G172" s="189"/>
-      <c r="H172" s="189"/>
-      <c r="I172" s="189"/>
-      <c r="J172" s="189"/>
-      <c r="K172" s="189"/>
-      <c r="L172" s="189"/>
-      <c r="M172" s="189"/>
-      <c r="N172" s="189"/>
-      <c r="O172" s="189"/>
-      <c r="P172" s="188"/>
+      <c r="F172" s="173"/>
+      <c r="G172" s="173"/>
+      <c r="H172" s="173"/>
+      <c r="I172" s="173"/>
+      <c r="J172" s="173"/>
+      <c r="K172" s="173"/>
+      <c r="L172" s="173"/>
+      <c r="M172" s="173"/>
+      <c r="N172" s="173"/>
+      <c r="O172" s="173"/>
+      <c r="P172" s="172"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A173" s="180">
+      <c r="A173" s="164">
         <v>45679</v>
       </c>
-      <c r="B173" s="181" t="s">
+      <c r="B173" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C173" s="182">
+      <c r="C173" s="166">
         <v>4</v>
       </c>
-      <c r="D173" s="181"/>
-      <c r="E173" s="183" t="s">
+      <c r="D173" s="165"/>
+      <c r="E173" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="F173" s="184"/>
-      <c r="G173" s="184"/>
-      <c r="H173" s="184"/>
-      <c r="I173" s="184"/>
-      <c r="J173" s="184"/>
-      <c r="K173" s="184"/>
-      <c r="L173" s="184"/>
-      <c r="M173" s="184"/>
-      <c r="N173" s="184"/>
-      <c r="O173" s="184"/>
-      <c r="P173" s="182"/>
+      <c r="F173" s="168"/>
+      <c r="G173" s="168"/>
+      <c r="H173" s="168"/>
+      <c r="I173" s="168"/>
+      <c r="J173" s="168"/>
+      <c r="K173" s="168"/>
+      <c r="L173" s="168"/>
+      <c r="M173" s="168"/>
+      <c r="N173" s="168"/>
+      <c r="O173" s="168"/>
+      <c r="P173" s="166"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A174" s="180">
+      <c r="A174" s="164">
         <v>45679</v>
       </c>
-      <c r="B174" s="181" t="s">
+      <c r="B174" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C174" s="182">
+      <c r="C174" s="166">
         <v>4</v>
       </c>
-      <c r="D174" s="181"/>
-      <c r="E174" s="183" t="s">
+      <c r="D174" s="165"/>
+      <c r="E174" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="F174" s="184"/>
-      <c r="G174" s="184"/>
-      <c r="H174" s="184"/>
-      <c r="I174" s="184"/>
-      <c r="J174" s="184"/>
-      <c r="K174" s="184"/>
-      <c r="L174" s="184"/>
-      <c r="M174" s="184"/>
-      <c r="N174" s="184"/>
-      <c r="O174" s="184"/>
-      <c r="P174" s="182"/>
+      <c r="F174" s="168"/>
+      <c r="G174" s="168"/>
+      <c r="H174" s="168"/>
+      <c r="I174" s="168"/>
+      <c r="J174" s="168"/>
+      <c r="K174" s="168"/>
+      <c r="L174" s="168"/>
+      <c r="M174" s="168"/>
+      <c r="N174" s="168"/>
+      <c r="O174" s="168"/>
+      <c r="P174" s="166"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A175" s="180">
+      <c r="A175" s="164">
         <v>45679</v>
       </c>
-      <c r="B175" s="181" t="s">
+      <c r="B175" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C175" s="182">
+      <c r="C175" s="166">
         <v>4</v>
       </c>
-      <c r="D175" s="181"/>
-      <c r="E175" s="183" t="s">
+      <c r="D175" s="165"/>
+      <c r="E175" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="F175" s="184"/>
-      <c r="G175" s="184"/>
-      <c r="H175" s="184"/>
-      <c r="I175" s="184"/>
-      <c r="J175" s="184"/>
-      <c r="K175" s="184"/>
-      <c r="L175" s="184"/>
-      <c r="M175" s="184"/>
-      <c r="N175" s="184"/>
-      <c r="O175" s="184"/>
-      <c r="P175" s="182"/>
+      <c r="F175" s="168"/>
+      <c r="G175" s="168"/>
+      <c r="H175" s="168"/>
+      <c r="I175" s="168"/>
+      <c r="J175" s="168"/>
+      <c r="K175" s="168"/>
+      <c r="L175" s="168"/>
+      <c r="M175" s="168"/>
+      <c r="N175" s="168"/>
+      <c r="O175" s="168"/>
+      <c r="P175" s="166"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A176" s="180">
+      <c r="A176" s="164">
         <v>45679</v>
       </c>
-      <c r="B176" s="181" t="s">
+      <c r="B176" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C176" s="182">
+      <c r="C176" s="166">
         <v>4</v>
       </c>
-      <c r="D176" s="181"/>
-      <c r="E176" s="183" t="s">
+      <c r="D176" s="165"/>
+      <c r="E176" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="F176" s="184"/>
-      <c r="G176" s="184"/>
-      <c r="H176" s="184"/>
-      <c r="I176" s="184"/>
-      <c r="J176" s="184"/>
-      <c r="K176" s="184"/>
-      <c r="L176" s="184"/>
-      <c r="M176" s="184"/>
-      <c r="N176" s="184"/>
-      <c r="O176" s="184"/>
-      <c r="P176" s="182"/>
+      <c r="F176" s="168"/>
+      <c r="G176" s="168"/>
+      <c r="H176" s="168"/>
+      <c r="I176" s="168"/>
+      <c r="J176" s="168"/>
+      <c r="K176" s="168"/>
+      <c r="L176" s="168"/>
+      <c r="M176" s="168"/>
+      <c r="N176" s="168"/>
+      <c r="O176" s="168"/>
+      <c r="P176" s="166"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A177" s="180">
+      <c r="A177" s="164">
         <v>45679</v>
       </c>
-      <c r="B177" s="181" t="s">
+      <c r="B177" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C177" s="182">
+      <c r="C177" s="166">
         <v>4</v>
       </c>
-      <c r="D177" s="181"/>
-      <c r="E177" s="183" t="s">
+      <c r="D177" s="165"/>
+      <c r="E177" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="F177" s="184"/>
-      <c r="G177" s="184"/>
-      <c r="H177" s="184"/>
-      <c r="I177" s="184"/>
-      <c r="J177" s="184"/>
-      <c r="K177" s="184"/>
-      <c r="L177" s="184"/>
-      <c r="M177" s="184"/>
-      <c r="N177" s="184"/>
-      <c r="O177" s="184"/>
-      <c r="P177" s="182"/>
+      <c r="F177" s="168"/>
+      <c r="G177" s="168"/>
+      <c r="H177" s="168"/>
+      <c r="I177" s="168"/>
+      <c r="J177" s="168"/>
+      <c r="K177" s="168"/>
+      <c r="L177" s="168"/>
+      <c r="M177" s="168"/>
+      <c r="N177" s="168"/>
+      <c r="O177" s="168"/>
+      <c r="P177" s="166"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A178" s="180">
+      <c r="A178" s="164">
         <v>45679</v>
       </c>
-      <c r="B178" s="181" t="s">
+      <c r="B178" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C178" s="182">
+      <c r="C178" s="166">
         <v>4</v>
       </c>
-      <c r="D178" s="181"/>
-      <c r="E178" s="183" t="s">
+      <c r="D178" s="165"/>
+      <c r="E178" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="F178" s="184"/>
-      <c r="G178" s="184"/>
-      <c r="H178" s="184"/>
-      <c r="I178" s="184"/>
-      <c r="J178" s="184"/>
-      <c r="K178" s="184"/>
-      <c r="L178" s="184"/>
-      <c r="M178" s="184"/>
-      <c r="N178" s="184"/>
-      <c r="O178" s="184"/>
-      <c r="P178" s="182"/>
+      <c r="F178" s="168"/>
+      <c r="G178" s="168"/>
+      <c r="H178" s="168"/>
+      <c r="I178" s="168"/>
+      <c r="J178" s="168"/>
+      <c r="K178" s="168"/>
+      <c r="L178" s="168"/>
+      <c r="M178" s="168"/>
+      <c r="N178" s="168"/>
+      <c r="O178" s="168"/>
+      <c r="P178" s="166"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A179" s="180">
+      <c r="A179" s="164">
         <v>45679</v>
       </c>
-      <c r="B179" s="181" t="s">
+      <c r="B179" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C179" s="182">
+      <c r="C179" s="166">
         <v>4</v>
       </c>
-      <c r="D179" s="181"/>
-      <c r="E179" s="183" t="s">
+      <c r="D179" s="165"/>
+      <c r="E179" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="F179" s="184"/>
-      <c r="G179" s="184"/>
-      <c r="H179" s="184"/>
-      <c r="I179" s="184"/>
-      <c r="J179" s="184"/>
-      <c r="K179" s="184"/>
-      <c r="L179" s="184"/>
-      <c r="M179" s="184"/>
-      <c r="N179" s="184"/>
-      <c r="O179" s="184"/>
-      <c r="P179" s="182"/>
+      <c r="F179" s="168"/>
+      <c r="G179" s="168"/>
+      <c r="H179" s="168"/>
+      <c r="I179" s="168"/>
+      <c r="J179" s="168"/>
+      <c r="K179" s="168"/>
+      <c r="L179" s="168"/>
+      <c r="M179" s="168"/>
+      <c r="N179" s="168"/>
+      <c r="O179" s="168"/>
+      <c r="P179" s="166"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A180" s="180">
+      <c r="A180" s="164">
         <v>45679</v>
       </c>
-      <c r="B180" s="181" t="s">
+      <c r="B180" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C180" s="182">
+      <c r="C180" s="166">
         <v>4</v>
       </c>
-      <c r="D180" s="181"/>
-      <c r="E180" s="183" t="s">
+      <c r="D180" s="165"/>
+      <c r="E180" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="F180" s="184"/>
-      <c r="G180" s="184"/>
-      <c r="H180" s="184"/>
-      <c r="I180" s="184"/>
-      <c r="J180" s="184"/>
-      <c r="K180" s="184"/>
-      <c r="L180" s="184"/>
-      <c r="M180" s="184"/>
-      <c r="N180" s="184"/>
-      <c r="O180" s="184"/>
-      <c r="P180" s="182"/>
+      <c r="F180" s="168"/>
+      <c r="G180" s="168"/>
+      <c r="H180" s="168"/>
+      <c r="I180" s="168"/>
+      <c r="J180" s="168"/>
+      <c r="K180" s="168"/>
+      <c r="L180" s="168"/>
+      <c r="M180" s="168"/>
+      <c r="N180" s="168"/>
+      <c r="O180" s="168"/>
+      <c r="P180" s="166"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A181" s="180">
+      <c r="A181" s="164">
         <v>45679</v>
       </c>
-      <c r="B181" s="181" t="s">
+      <c r="B181" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C181" s="182">
+      <c r="C181" s="166">
         <v>4</v>
       </c>
-      <c r="D181" s="181"/>
-      <c r="E181" s="185" t="s">
+      <c r="D181" s="165"/>
+      <c r="E181" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="F181" s="184"/>
-      <c r="G181" s="184"/>
-      <c r="H181" s="184"/>
-      <c r="I181" s="184"/>
-      <c r="J181" s="184"/>
-      <c r="K181" s="184"/>
-      <c r="L181" s="184"/>
-      <c r="M181" s="184"/>
-      <c r="N181" s="184"/>
-      <c r="O181" s="184"/>
-      <c r="P181" s="182"/>
+      <c r="F181" s="168"/>
+      <c r="G181" s="168"/>
+      <c r="H181" s="168"/>
+      <c r="I181" s="168"/>
+      <c r="J181" s="168"/>
+      <c r="K181" s="168"/>
+      <c r="L181" s="168"/>
+      <c r="M181" s="168"/>
+      <c r="N181" s="168"/>
+      <c r="O181" s="168"/>
+      <c r="P181" s="166"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A182" s="180">
+      <c r="A182" s="164">
         <v>45679</v>
       </c>
-      <c r="B182" s="181" t="s">
+      <c r="B182" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C182" s="182">
+      <c r="C182" s="166">
         <v>4</v>
       </c>
-      <c r="D182" s="181"/>
-      <c r="E182" s="185" t="s">
+      <c r="D182" s="165"/>
+      <c r="E182" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="F182" s="184"/>
-      <c r="G182" s="184"/>
-      <c r="H182" s="184"/>
-      <c r="I182" s="184"/>
-      <c r="J182" s="184"/>
-      <c r="K182" s="184"/>
-      <c r="L182" s="184"/>
-      <c r="M182" s="184"/>
-      <c r="N182" s="184"/>
-      <c r="O182" s="184"/>
-      <c r="P182" s="182"/>
+      <c r="F182" s="168"/>
+      <c r="G182" s="168"/>
+      <c r="H182" s="168"/>
+      <c r="I182" s="168"/>
+      <c r="J182" s="168"/>
+      <c r="K182" s="168"/>
+      <c r="L182" s="168"/>
+      <c r="M182" s="168"/>
+      <c r="N182" s="168"/>
+      <c r="O182" s="168"/>
+      <c r="P182" s="166"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A183" s="180">
+      <c r="A183" s="164">
         <v>45679</v>
       </c>
-      <c r="B183" s="181" t="s">
+      <c r="B183" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C183" s="182">
+      <c r="C183" s="166">
         <v>4</v>
       </c>
-      <c r="D183" s="181"/>
-      <c r="E183" s="183" t="s">
+      <c r="D183" s="165"/>
+      <c r="E183" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="F183" s="184"/>
-      <c r="G183" s="184"/>
-      <c r="H183" s="184"/>
-      <c r="I183" s="184"/>
-      <c r="J183" s="184"/>
-      <c r="K183" s="184"/>
-      <c r="L183" s="184"/>
-      <c r="M183" s="184"/>
-      <c r="N183" s="184"/>
-      <c r="O183" s="184"/>
-      <c r="P183" s="182"/>
+      <c r="F183" s="168"/>
+      <c r="G183" s="168"/>
+      <c r="H183" s="168"/>
+      <c r="I183" s="168"/>
+      <c r="J183" s="168"/>
+      <c r="K183" s="168"/>
+      <c r="L183" s="168"/>
+      <c r="M183" s="168"/>
+      <c r="N183" s="168"/>
+      <c r="O183" s="168"/>
+      <c r="P183" s="166"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P139" xr:uid="{54D898E0-A6F8-4001-887D-66DAC1BD5F77}"/>
@@ -14899,8 +14902,8 @@
   <dimension ref="A1:Q131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q121" sqref="Q121"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q95" sqref="Q95:Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19953,7 +19956,7 @@
         <v>19</v>
       </c>
       <c r="Q95" s="158" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -20006,7 +20009,7 @@
         <v>37.75</v>
       </c>
       <c r="Q96" s="158" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -20059,7 +20062,7 @@
         <v>21.75</v>
       </c>
       <c r="Q97" s="158" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -20112,7 +20115,7 @@
         <v>8.25</v>
       </c>
       <c r="Q98" s="158" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -20165,7 +20168,7 @@
         <v>52.75</v>
       </c>
       <c r="Q99" s="158" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -20218,7 +20221,7 @@
         <v>24.5</v>
       </c>
       <c r="Q100" s="158" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -20271,7 +20274,7 @@
         <v>19</v>
       </c>
       <c r="Q101" s="158" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -20324,11 +20327,11 @@
         <v>13</v>
       </c>
       <c r="Q102" s="158" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="190" t="s">
+      <c r="A103" s="174" t="s">
         <v>16</v>
       </c>
       <c r="B103" s="116">
@@ -20540,7 +20543,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="190" t="s">
+      <c r="A107" s="174" t="s">
         <v>16</v>
       </c>
       <c r="B107" s="116">
@@ -20752,7 +20755,7 @@
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" s="190" t="s">
+      <c r="A111" s="174" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="116">
@@ -21567,96 +21570,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="159" t="s">
+      <c r="D1" s="185" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="185" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="159" t="s">
+      <c r="I1" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="159" t="s">
+      <c r="K1" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="159" t="s">
+      <c r="L1" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="159" t="s">
+      <c r="M1" s="185" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="159" t="s">
+      <c r="N1" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="159" t="s">
+      <c r="O1" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="159" t="s">
+      <c r="P1" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="159" t="s">
+      <c r="Q1" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="159" t="s">
+      <c r="R1" s="185" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="163" t="b">
+      <c r="S1" s="177" t="b">
         <v>1</v>
       </c>
-      <c r="T1" s="165" t="s">
+      <c r="T1" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="167" t="s">
+      <c r="U1" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="169" t="s">
+      <c r="V1" s="183" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="162"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="170"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="184"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="129" t="s">
@@ -22495,6 +22498,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -22511,12 +22520,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
